--- a/数据整理/stocks/A股/创业板/301029-怡合达.xlsx
+++ b/数据整理/stocks/A股/创业板/301029-怡合达.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,17 +633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -652,13 +673,293 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3301</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014380</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/301029-怡合达.xlsx
+++ b/数据整理/stocks/A股/创业板/301029-怡合达.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,167 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000594</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大摩进取优选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.72</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2809</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002707</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1480</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>233011</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大摩主题优选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0790</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -906,64 +804,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.83</v>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.51</v>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/301029-怡合达.xlsx
+++ b/数据整理/stocks/A股/创业板/301029-怡合达.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.83</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -515,6 +532,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014380</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -798,7 +1251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/301029-怡合达.xlsx
+++ b/数据整理/stocks/A股/创业板/301029-怡合达.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.83</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -532,6 +549,402 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3151</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2306</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013955</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016780</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -967,7 +1380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1251,7 +1664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
